--- a/R/analysis/data/Pt_30_Control.xlsx
+++ b/R/analysis/data/Pt_30_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.82</v>
       </c>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>2.16</v>
       </c>
       <c r="L3" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>1.29</v>
       </c>
       <c r="K4" t="n">
-        <v>5.66</v>
+        <v>1.41</v>
       </c>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0.71</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>2.16</v>
       </c>
       <c r="L6" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0.71</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>1.85</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.62</v>
+        <v>3.62</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -981,14 +981,14 @@
         <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>4.56</v>
+        <v>0.56</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.4</v>
+        <v>3.22</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1098,7 +1098,7 @@
         <v>1.92</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>0.58</v>
@@ -1155,16 +1155,16 @@
         <v>0.85</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="L13" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="M13" t="n">
-        <v>5.18</v>
+        <v>1.89</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.33</v>
+        <v>3.66</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>2.52</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -1333,16 +1333,16 @@
         <v>5.19</v>
       </c>
       <c r="K16" t="n">
-        <v>6.34</v>
+        <v>1.15</v>
       </c>
       <c r="L16" t="n">
-        <v>0.81</v>
+        <v>4.48</v>
       </c>
       <c r="M16" t="n">
-        <v>3.39</v>
+        <v>0.57</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>1.29</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
         <v>0.96</v>
@@ -1509,16 +1509,16 @@
         <v>1.19</v>
       </c>
       <c r="K19" t="n">
-        <v>6.11</v>
+        <v>1.16</v>
       </c>
       <c r="L19" t="n">
-        <v>0.82</v>
+        <v>4.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.94</v>
+        <v>0.53</v>
       </c>
       <c r="N19" t="n">
-        <v>0.38</v>
+        <v>1.38</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>4.16</v>
+        <v>1.83</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1679,14 +1679,14 @@
         <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>3.97</v>
+        <v>2.56</v>
       </c>
       <c r="L22" t="n">
-        <v>1.81</v>
+        <v>2.81</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>1.52</v>
@@ -1851,10 +1851,10 @@
         <v>0.92</v>
       </c>
       <c r="K25" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0.58</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M27" t="n">
         <v>0.55</v>
@@ -2025,16 +2025,16 @@
         <v>1.54</v>
       </c>
       <c r="K28" t="n">
-        <v>4.17</v>
+        <v>0.88</v>
       </c>
       <c r="L28" t="n">
-        <v>0.62</v>
+        <v>2.95</v>
       </c>
       <c r="M28" t="n">
-        <v>2.4</v>
+        <v>0.99</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
